--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D98E6F-8ED2-4E9A-A03E-4B64CAC7A0BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA55CE-173E-45AB-8F90-AFE9DDEC7226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1630" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13420" yWindow="1890" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>with</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Single Cell RNA-sequencing</t>
   </si>
   <si>
-    <t xml:space="preserve">Earlham Institute,  University of East Anglia </t>
-  </si>
-  <si>
     <t>library preparation, sequencing, QC &amp; analysis</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>2017-2019</t>
   </si>
   <si>
-    <t>Research IT, University of Manchester</t>
-  </si>
-  <si>
     <t>Programming Courses</t>
   </si>
   <si>
@@ -118,6 +112,9 @@
   </si>
   <si>
     <t>Insitution</t>
+  </si>
+  <si>
+    <t>Earlham Institute</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,36 +473,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -513,67 +510,67 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>2014</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA55CE-173E-45AB-8F90-AFE9DDEC7226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0F5012-C47C-4E94-A19E-1026683895EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="1890" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12040" yWindow="8830" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>with</t>
   </si>
@@ -61,18 +61,6 @@
   </si>
   <si>
     <t>University of Manchester</t>
-  </si>
-  <si>
-    <t>2017-2019</t>
-  </si>
-  <si>
-    <t>Programming Courses</t>
-  </si>
-  <si>
-    <t>1 day courses</t>
-  </si>
-  <si>
-    <t>R for Data anlysis; High Performance Computing; unix envirnoment &amp; version control</t>
   </si>
   <si>
     <t xml:space="preserve">Home Office personal animal licence </t>
@@ -439,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,36 +461,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -516,7 +504,7 @@
         <v>2018</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -540,37 +528,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6">
+        <v>2017</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>2017</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0F5012-C47C-4E94-A19E-1026683895EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08E73D-5520-41F8-941B-CEFC23EBCCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="8830" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1200" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Single Cell RNA-sequencing</t>
   </si>
@@ -54,15 +39,9 @@
     <t>1 week course</t>
   </si>
   <si>
-    <t xml:space="preserve">University College Dublin </t>
-  </si>
-  <si>
     <t>Theory and practical training using BD machines</t>
   </si>
   <si>
-    <t>University of Manchester</t>
-  </si>
-  <si>
     <t xml:space="preserve">Home Office personal animal licence </t>
   </si>
   <si>
@@ -72,21 +51,6 @@
     <t>PIL A, B &amp; C</t>
   </si>
   <si>
-    <t>Major Title</t>
-  </si>
-  <si>
-    <t>Subtitle</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>rightmost</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
     <t>details</t>
   </si>
   <si>
@@ -103,6 +67,12 @@
   </si>
   <si>
     <t>Earlham Institute</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
 </sst>
 </file>
@@ -427,121 +397,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3">
+        <v>2014</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2014</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>2017</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08E73D-5520-41F8-941B-CEFC23EBCCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0D52D-1E66-436A-96C9-54CC4D3EA402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1200" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="3820" windowWidth="31460" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Single Cell RNA-sequencing</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>UCD</t>
+  </si>
+  <si>
+    <t>Illumina Sequencing (NovaSeq 6000)</t>
+  </si>
+  <si>
+    <t>2 Day Course; ongoing training</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>Theory, library preparation &amp; loading, maintenance, data processing and storage</t>
   </si>
 </sst>
 </file>
@@ -397,22 +409,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" customWidth="1"/>
+    <col min="3" max="3" width="72.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -429,7 +441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -463,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -478,6 +490,23 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0D52D-1E66-436A-96C9-54CC4D3EA402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F1450-FCF9-4501-A8EC-CA1A57C6E585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3820" windowWidth="31460" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19875" yWindow="1485" windowWidth="27615" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Single Cell RNA-sequencing</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Theory, library preparation &amp; loading, maintenance, data processing and storage</t>
+  </si>
+  <si>
+    <t>LAST (Ireland) course - awaiting exam outcome</t>
+  </si>
+  <si>
+    <t>LAST Ireland</t>
   </si>
 </sst>
 </file>
@@ -409,22 +415,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
-    <col min="3" max="3" width="72.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -441,7 +447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -475,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -507,6 +513,17 @@
       </c>
       <c r="E5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F1450-FCF9-4501-A8EC-CA1A57C6E585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D0271-CA54-964E-A4A1-CE92C9F53422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19875" yWindow="1485" windowWidth="27615" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6940" yWindow="1480" windowWidth="27620" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,10 @@
     <t>Theory, library preparation &amp; loading, maintenance, data processing and storage</t>
   </si>
   <si>
-    <t>LAST (Ireland) course - awaiting exam outcome</t>
-  </si>
-  <si>
     <t>LAST Ireland</t>
+  </si>
+  <si>
+    <t>LAST (Ireland) course (rodents)</t>
   </si>
 </sst>
 </file>
@@ -418,19 +418,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -515,15 +515,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
